--- a/data/pca/factorExposure/factorExposure_2015-07-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02111186231970995</v>
+        <v>-0.01380985789819551</v>
       </c>
       <c r="C2">
-        <v>-0.02642137266855294</v>
+        <v>-0.04741762343095766</v>
       </c>
       <c r="D2">
-        <v>0.1263180898712542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1392972576351291</v>
+      </c>
+      <c r="E2">
+        <v>-0.003823685774029879</v>
+      </c>
+      <c r="F2">
+        <v>0.01373174419363747</v>
+      </c>
+      <c r="G2">
+        <v>-0.1307959148943316</v>
+      </c>
+      <c r="H2">
+        <v>0.03487857557600197</v>
+      </c>
+      <c r="I2">
+        <v>-0.04768743925854286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.01046551632743444</v>
+        <v>0.01166708868357862</v>
       </c>
       <c r="C3">
-        <v>-0.02701725974393709</v>
+        <v>-0.01448488264626822</v>
       </c>
       <c r="D3">
-        <v>0.0124727309322192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01258256110462824</v>
+      </c>
+      <c r="E3">
+        <v>0.01694147367714158</v>
+      </c>
+      <c r="F3">
+        <v>-0.0128730496058895</v>
+      </c>
+      <c r="G3">
+        <v>0.003576903371741773</v>
+      </c>
+      <c r="H3">
+        <v>0.006369889816520105</v>
+      </c>
+      <c r="I3">
+        <v>0.003122761709294247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03507812697498405</v>
+        <v>-0.01924113803653484</v>
       </c>
       <c r="C4">
-        <v>-0.07363710739307733</v>
+        <v>-0.09460596900496628</v>
       </c>
       <c r="D4">
-        <v>0.1408733168203458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1485869667155757</v>
+      </c>
+      <c r="E4">
+        <v>0.0140633572865701</v>
+      </c>
+      <c r="F4">
+        <v>0.09009617376661062</v>
+      </c>
+      <c r="G4">
+        <v>-0.0105356334077675</v>
+      </c>
+      <c r="H4">
+        <v>0.03718073257664208</v>
+      </c>
+      <c r="I4">
+        <v>-0.01092856857345825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02723203796481462</v>
+        <v>-0.03027504289744212</v>
       </c>
       <c r="C6">
-        <v>-0.01417645460054813</v>
+        <v>-0.02934738048717265</v>
       </c>
       <c r="D6">
-        <v>0.1425347453463527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1289346470266128</v>
+      </c>
+      <c r="E6">
+        <v>-0.04009045136333376</v>
+      </c>
+      <c r="F6">
+        <v>0.04922296793682272</v>
+      </c>
+      <c r="G6">
+        <v>-0.0375621945033643</v>
+      </c>
+      <c r="H6">
+        <v>0.02820025831095944</v>
+      </c>
+      <c r="I6">
+        <v>0.008383336322640223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007237828473739538</v>
+        <v>-0.01025875871308291</v>
       </c>
       <c r="C7">
-        <v>-0.02355470089647444</v>
+        <v>-0.03321222812006414</v>
       </c>
       <c r="D7">
-        <v>0.1148631745276187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.1068101796872095</v>
+      </c>
+      <c r="E7">
+        <v>-0.04804868673014052</v>
+      </c>
+      <c r="F7">
+        <v>0.007225642160804371</v>
+      </c>
+      <c r="G7">
+        <v>-0.02137584062068336</v>
+      </c>
+      <c r="H7">
+        <v>0.06560044032333248</v>
+      </c>
+      <c r="I7">
+        <v>0.01919264442855492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.00153388611575833</v>
+        <v>0.005458626964229686</v>
       </c>
       <c r="C8">
-        <v>-0.02679658473088984</v>
+        <v>-0.03365838692466425</v>
       </c>
       <c r="D8">
-        <v>0.08209160389209129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08236349739439029</v>
+      </c>
+      <c r="E8">
+        <v>-0.0198148958288453</v>
+      </c>
+      <c r="F8">
+        <v>0.04029314199696764</v>
+      </c>
+      <c r="G8">
+        <v>-0.06540055987073012</v>
+      </c>
+      <c r="H8">
+        <v>-0.01310179143280447</v>
+      </c>
+      <c r="I8">
+        <v>0.0250353786959198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03361451641779568</v>
+        <v>-0.01731772251083193</v>
       </c>
       <c r="C9">
-        <v>-0.06571138128177126</v>
+        <v>-0.08265971609952701</v>
       </c>
       <c r="D9">
-        <v>0.1302956846325419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1229588645540449</v>
+      </c>
+      <c r="E9">
+        <v>0.00546523925657922</v>
+      </c>
+      <c r="F9">
+        <v>0.05461121286352145</v>
+      </c>
+      <c r="G9">
+        <v>-0.00192604495246182</v>
+      </c>
+      <c r="H9">
+        <v>0.0457704145277831</v>
+      </c>
+      <c r="I9">
+        <v>-0.002467389273859936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1604046605013772</v>
+        <v>-0.2229502624619216</v>
       </c>
       <c r="C10">
-        <v>0.1733140408329988</v>
+        <v>0.1100217297278937</v>
       </c>
       <c r="D10">
-        <v>0.01818924183939797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.000407222422157991</v>
+      </c>
+      <c r="E10">
+        <v>0.02311302460008793</v>
+      </c>
+      <c r="F10">
+        <v>0.0415737423497772</v>
+      </c>
+      <c r="G10">
+        <v>0.01545480988610873</v>
+      </c>
+      <c r="H10">
+        <v>-0.06097731861297238</v>
+      </c>
+      <c r="I10">
+        <v>0.1290002576637542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02107182434717159</v>
+        <v>-0.01093905882939049</v>
       </c>
       <c r="C11">
-        <v>-0.04244313263012345</v>
+        <v>-0.05240485857236751</v>
       </c>
       <c r="D11">
-        <v>0.05288360283095242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04831535829723866</v>
+      </c>
+      <c r="E11">
+        <v>-0.01932617995594271</v>
+      </c>
+      <c r="F11">
+        <v>-0.01092378709787975</v>
+      </c>
+      <c r="G11">
+        <v>-0.0103290150789317</v>
+      </c>
+      <c r="H11">
+        <v>0.042802052682164</v>
+      </c>
+      <c r="I11">
+        <v>-0.02850309595889953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02317287380563169</v>
+        <v>-0.0124140639761477</v>
       </c>
       <c r="C12">
-        <v>-0.04169701847082782</v>
+        <v>-0.04910883844215644</v>
       </c>
       <c r="D12">
-        <v>0.06567174898113583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05166811745360767</v>
+      </c>
+      <c r="E12">
+        <v>-0.01495534205878712</v>
+      </c>
+      <c r="F12">
+        <v>-0.01490988540883226</v>
+      </c>
+      <c r="G12">
+        <v>-0.001286906634275973</v>
+      </c>
+      <c r="H12">
+        <v>0.07247843255290935</v>
+      </c>
+      <c r="I12">
+        <v>-0.01374924407780786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005943465827012328</v>
+        <v>-0.006535479758895316</v>
       </c>
       <c r="C13">
-        <v>-0.03024339899541397</v>
+        <v>-0.04654469522487231</v>
       </c>
       <c r="D13">
-        <v>0.1546560979753341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1563202358371709</v>
+      </c>
+      <c r="E13">
+        <v>-0.03694964652862157</v>
+      </c>
+      <c r="F13">
+        <v>0.03327830345376903</v>
+      </c>
+      <c r="G13">
+        <v>-0.04737693047313067</v>
+      </c>
+      <c r="H13">
+        <v>0.06351941763299385</v>
+      </c>
+      <c r="I13">
+        <v>0.04970219182350104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003504530990415905</v>
+        <v>-0.001122269001085689</v>
       </c>
       <c r="C14">
-        <v>-0.02136495520745666</v>
+        <v>-0.02777283411953365</v>
       </c>
       <c r="D14">
-        <v>0.1063903398837353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1044491354937199</v>
+      </c>
+      <c r="E14">
+        <v>-0.02402072625863497</v>
+      </c>
+      <c r="F14">
+        <v>0.02473760907276512</v>
+      </c>
+      <c r="G14">
+        <v>-0.05755163341594525</v>
+      </c>
+      <c r="H14">
+        <v>0.1015332563678306</v>
+      </c>
+      <c r="I14">
+        <v>0.01686397917013674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0008735951314973618</v>
+        <v>0.0003420381098604537</v>
       </c>
       <c r="C15">
-        <v>-0.01014829108962794</v>
+        <v>-0.01867277641075747</v>
       </c>
       <c r="D15">
-        <v>0.02432592694366418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05076162410875494</v>
+      </c>
+      <c r="E15">
+        <v>-0.005128060745128001</v>
+      </c>
+      <c r="F15">
+        <v>0.001644428198174291</v>
+      </c>
+      <c r="G15">
+        <v>-0.02360061941271255</v>
+      </c>
+      <c r="H15">
+        <v>0.008965907524709696</v>
+      </c>
+      <c r="I15">
+        <v>-0.02316046557430361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02093272695686424</v>
+        <v>-0.01153248160166099</v>
       </c>
       <c r="C16">
-        <v>-0.03996636248842266</v>
+        <v>-0.04815005739129761</v>
       </c>
       <c r="D16">
-        <v>0.06023119317547884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04878952661217512</v>
+      </c>
+      <c r="E16">
+        <v>-0.01918183722392995</v>
+      </c>
+      <c r="F16">
+        <v>-0.007344508024715899</v>
+      </c>
+      <c r="G16">
+        <v>-0.00206523632957906</v>
+      </c>
+      <c r="H16">
+        <v>0.05011674780458221</v>
+      </c>
+      <c r="I16">
+        <v>-0.02762946876133543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007402925636155458</v>
+        <v>-0.001377126492885368</v>
       </c>
       <c r="C19">
-        <v>-0.02546071234205518</v>
+        <v>-0.02306826765231342</v>
       </c>
       <c r="D19">
-        <v>0.1344665606636246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08721665671530153</v>
+      </c>
+      <c r="E19">
+        <v>0.01839259525328259</v>
+      </c>
+      <c r="F19">
+        <v>0.01018499077287748</v>
+      </c>
+      <c r="G19">
+        <v>-0.03856158964854529</v>
+      </c>
+      <c r="H19">
+        <v>0.06731371256298951</v>
+      </c>
+      <c r="I19">
+        <v>0.048225101572158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004267410034114578</v>
+        <v>-0.004699431564677194</v>
       </c>
       <c r="C20">
-        <v>-0.02751812238021563</v>
+        <v>-0.03752722735624984</v>
       </c>
       <c r="D20">
-        <v>0.09634534837208403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09933927933206103</v>
+      </c>
+      <c r="E20">
+        <v>-0.00364354222293817</v>
+      </c>
+      <c r="F20">
+        <v>0.02703013967453971</v>
+      </c>
+      <c r="G20">
+        <v>-0.01804877327637737</v>
+      </c>
+      <c r="H20">
+        <v>0.05247582862968233</v>
+      </c>
+      <c r="I20">
+        <v>0.006234488578206676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.006815939108359243</v>
+        <v>-0.003869539705386499</v>
       </c>
       <c r="C21">
-        <v>-0.03508642779555693</v>
+        <v>-0.04292984791782437</v>
       </c>
       <c r="D21">
-        <v>0.1716595301319086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1433747639391369</v>
+      </c>
+      <c r="E21">
+        <v>0.004336268645832769</v>
+      </c>
+      <c r="F21">
+        <v>0.0739120521860509</v>
+      </c>
+      <c r="G21">
+        <v>-0.07015852029364192</v>
+      </c>
+      <c r="H21">
+        <v>0.1547803173420548</v>
+      </c>
+      <c r="I21">
+        <v>0.1029177516519869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0007733540351567923</v>
+        <v>0.007408979214538601</v>
       </c>
       <c r="C22">
-        <v>-0.06062771987909495</v>
+        <v>-0.07271073886320742</v>
       </c>
       <c r="D22">
-        <v>0.1976830107527676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2403503451912269</v>
+      </c>
+      <c r="E22">
+        <v>-0.04179686446234134</v>
+      </c>
+      <c r="F22">
+        <v>0.02545308051866228</v>
+      </c>
+      <c r="G22">
+        <v>-0.2088835731594551</v>
+      </c>
+      <c r="H22">
+        <v>-0.4832755313540749</v>
+      </c>
+      <c r="I22">
+        <v>-0.1076301688750561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0005519581916144552</v>
+        <v>0.006979403672935848</v>
       </c>
       <c r="C23">
-        <v>-0.06111011524163689</v>
+        <v>-0.07362694662433721</v>
       </c>
       <c r="D23">
-        <v>0.1972611721945468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2409941623413835</v>
+      </c>
+      <c r="E23">
+        <v>-0.03876930971316623</v>
+      </c>
+      <c r="F23">
+        <v>0.02470787624195364</v>
+      </c>
+      <c r="G23">
+        <v>-0.2074740198820975</v>
+      </c>
+      <c r="H23">
+        <v>-0.483270196463518</v>
+      </c>
+      <c r="I23">
+        <v>-0.1093642093694433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02658819561495144</v>
+        <v>-0.01170376252731366</v>
       </c>
       <c r="C24">
-        <v>-0.0575948476864566</v>
+        <v>-0.06446920332564875</v>
       </c>
       <c r="D24">
-        <v>0.07184588665527132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05750711890692726</v>
+      </c>
+      <c r="E24">
+        <v>-0.0223645898871221</v>
+      </c>
+      <c r="F24">
+        <v>-0.004057162717606107</v>
+      </c>
+      <c r="G24">
+        <v>-0.01556009864035701</v>
+      </c>
+      <c r="H24">
+        <v>0.07185341270047171</v>
+      </c>
+      <c r="I24">
+        <v>-0.02493425280058662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02996361749755952</v>
+        <v>-0.01573807026662571</v>
       </c>
       <c r="C25">
-        <v>-0.04855600770779847</v>
+        <v>-0.05989847788057075</v>
       </c>
       <c r="D25">
-        <v>0.06591322357749649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05508234988632677</v>
+      </c>
+      <c r="E25">
+        <v>-0.009786755623188993</v>
+      </c>
+      <c r="F25">
+        <v>-0.006865191877879396</v>
+      </c>
+      <c r="G25">
+        <v>-0.001708308556794873</v>
+      </c>
+      <c r="H25">
+        <v>0.0433475306443775</v>
+      </c>
+      <c r="I25">
+        <v>-0.01459541578348924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005175777255077933</v>
+        <v>-0.00629342203608768</v>
       </c>
       <c r="C26">
-        <v>-0.01784728284403571</v>
+        <v>-0.02471522599785731</v>
       </c>
       <c r="D26">
-        <v>0.08267037120637657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07198820205768335</v>
+      </c>
+      <c r="E26">
+        <v>-0.01856239537923277</v>
+      </c>
+      <c r="F26">
+        <v>0.02543378724466653</v>
+      </c>
+      <c r="G26">
+        <v>-0.02871446533897636</v>
+      </c>
+      <c r="H26">
+        <v>0.07544951615447811</v>
+      </c>
+      <c r="I26">
+        <v>0.04752504090384031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2431560391762492</v>
+        <v>-0.3145090905674909</v>
       </c>
       <c r="C28">
-        <v>0.2145587203053394</v>
+        <v>0.1224519656100125</v>
       </c>
       <c r="D28">
-        <v>0.02380062966988292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0091139515702428</v>
+      </c>
+      <c r="E28">
+        <v>0.04957209706380104</v>
+      </c>
+      <c r="F28">
+        <v>0.0404345158813233</v>
+      </c>
+      <c r="G28">
+        <v>-0.009285187365338839</v>
+      </c>
+      <c r="H28">
+        <v>-0.03772071271230483</v>
+      </c>
+      <c r="I28">
+        <v>0.1431247471693414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002003907442548684</v>
+        <v>0.0005360618032779935</v>
       </c>
       <c r="C29">
-        <v>-0.02371645584437949</v>
+        <v>-0.03055278416823399</v>
       </c>
       <c r="D29">
-        <v>0.1014008838301204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1014056874000509</v>
+      </c>
+      <c r="E29">
+        <v>-0.03576206018328746</v>
+      </c>
+      <c r="F29">
+        <v>0.03153676730427524</v>
+      </c>
+      <c r="G29">
+        <v>-0.04752314459149864</v>
+      </c>
+      <c r="H29">
+        <v>0.102678551420973</v>
+      </c>
+      <c r="I29">
+        <v>0.01688511170142732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02324898466434164</v>
+        <v>-0.0179779796942623</v>
       </c>
       <c r="C30">
-        <v>-0.06245522039911283</v>
+        <v>-0.08183039247024819</v>
       </c>
       <c r="D30">
-        <v>0.1643485240605967</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1644958727105859</v>
+      </c>
+      <c r="E30">
+        <v>-0.04111294224308202</v>
+      </c>
+      <c r="F30">
+        <v>0.03189072738619446</v>
+      </c>
+      <c r="G30">
+        <v>-0.04050575426762877</v>
+      </c>
+      <c r="H30">
+        <v>0.02643927898465552</v>
+      </c>
+      <c r="I30">
+        <v>-0.06597057370628516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04433883744980447</v>
+        <v>-0.01456095727107044</v>
       </c>
       <c r="C31">
-        <v>-0.08591676588855884</v>
+        <v>-0.09210512977040716</v>
       </c>
       <c r="D31">
-        <v>0.07806653294057751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04693518228452746</v>
+      </c>
+      <c r="E31">
+        <v>-0.00824147616662135</v>
+      </c>
+      <c r="F31">
+        <v>0.01470306006677479</v>
+      </c>
+      <c r="G31">
+        <v>-0.01760388494661153</v>
+      </c>
+      <c r="H31">
+        <v>0.04852606430841611</v>
+      </c>
+      <c r="I31">
+        <v>0.07705443779147077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0189817160650684</v>
+        <v>-0.01189927142315074</v>
       </c>
       <c r="C32">
-        <v>-0.03806344856498199</v>
+        <v>-0.04216486147690977</v>
       </c>
       <c r="D32">
-        <v>0.1057570710327446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1071026520711288</v>
+      </c>
+      <c r="E32">
+        <v>0.009572838957741902</v>
+      </c>
+      <c r="F32">
+        <v>0.04324940656202609</v>
+      </c>
+      <c r="G32">
+        <v>-0.03240923729823154</v>
+      </c>
+      <c r="H32">
+        <v>0.03155150374373899</v>
+      </c>
+      <c r="I32">
+        <v>0.0678856983075721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01630294711825702</v>
+        <v>-0.009843270186000157</v>
       </c>
       <c r="C33">
-        <v>-0.04329274528400233</v>
+        <v>-0.0563444663196629</v>
       </c>
       <c r="D33">
-        <v>0.1526569899174918</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1333798373632465</v>
+      </c>
+      <c r="E33">
+        <v>-0.01068271779404605</v>
+      </c>
+      <c r="F33">
+        <v>0.02651168107783546</v>
+      </c>
+      <c r="G33">
+        <v>-0.03822135540294012</v>
+      </c>
+      <c r="H33">
+        <v>0.05482078439165772</v>
+      </c>
+      <c r="I33">
+        <v>0.02041335686269967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02601485219476854</v>
+        <v>-0.01024498198234714</v>
       </c>
       <c r="C34">
-        <v>-0.05719709928714563</v>
+        <v>-0.06170114036471964</v>
       </c>
       <c r="D34">
-        <v>0.05054965314572053</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.035466694907822</v>
+      </c>
+      <c r="E34">
+        <v>-0.02858983165975902</v>
+      </c>
+      <c r="F34">
+        <v>-0.03392375697581355</v>
+      </c>
+      <c r="G34">
+        <v>-0.01163913645649573</v>
+      </c>
+      <c r="H34">
+        <v>0.05593637704337491</v>
+      </c>
+      <c r="I34">
+        <v>-0.00140051254879053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001230384000288635</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004560298475172511</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01506190369403231</v>
+      </c>
+      <c r="E35">
+        <v>-0.003035807495164999</v>
+      </c>
+      <c r="F35">
+        <v>0.001106277921072045</v>
+      </c>
+      <c r="G35">
+        <v>-0.002276711935687569</v>
+      </c>
+      <c r="H35">
+        <v>0.009021646652876353</v>
+      </c>
+      <c r="I35">
+        <v>-0.005670512890463273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009868367447950499</v>
+        <v>-0.01038927761162299</v>
       </c>
       <c r="C36">
-        <v>-0.007275769317810173</v>
+        <v>-0.02010835074674569</v>
       </c>
       <c r="D36">
-        <v>0.09965258594319887</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08361585600096544</v>
+      </c>
+      <c r="E36">
+        <v>-0.005672397664408283</v>
+      </c>
+      <c r="F36">
+        <v>0.03427396524469963</v>
+      </c>
+      <c r="G36">
+        <v>-0.02220810322926613</v>
+      </c>
+      <c r="H36">
+        <v>0.05619356218858892</v>
+      </c>
+      <c r="I36">
+        <v>0.03331357396645541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.009437740300910854</v>
+        <v>-0.01602118910252959</v>
       </c>
       <c r="C38">
-        <v>-0.007782393690869035</v>
+        <v>-0.0151315442970897</v>
       </c>
       <c r="D38">
-        <v>0.09279613516814866</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08799009944472734</v>
+      </c>
+      <c r="E38">
+        <v>0.01389576026735431</v>
+      </c>
+      <c r="F38">
+        <v>-0.005926317268607872</v>
+      </c>
+      <c r="G38">
+        <v>-0.04417598624763615</v>
+      </c>
+      <c r="H38">
+        <v>0.04310413817812678</v>
+      </c>
+      <c r="I38">
+        <v>0.042128955402769</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0210201537601746</v>
+        <v>-0.008974744070863207</v>
       </c>
       <c r="C39">
-        <v>-0.05854123749477103</v>
+        <v>-0.07520180224749365</v>
       </c>
       <c r="D39">
-        <v>0.1166745115955014</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1100773782735641</v>
+      </c>
+      <c r="E39">
+        <v>-0.04716424443330432</v>
+      </c>
+      <c r="F39">
+        <v>-0.006634370535356659</v>
+      </c>
+      <c r="G39">
+        <v>-0.01989655969205186</v>
+      </c>
+      <c r="H39">
+        <v>0.09602061101401507</v>
+      </c>
+      <c r="I39">
+        <v>-0.05765453712701438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01167002723922156</v>
+        <v>-0.01224162583654094</v>
       </c>
       <c r="C40">
-        <v>-0.01850018559684078</v>
+        <v>-0.02951297771209544</v>
       </c>
       <c r="D40">
-        <v>0.1144146249151892</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1033694215967441</v>
+      </c>
+      <c r="E40">
+        <v>-0.03969766823071928</v>
+      </c>
+      <c r="F40">
+        <v>-0.02142952562654776</v>
+      </c>
+      <c r="G40">
+        <v>-0.09783504417146331</v>
+      </c>
+      <c r="H40">
+        <v>0.02495846806622129</v>
+      </c>
+      <c r="I40">
+        <v>0.03338988435635264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01465285764509971</v>
+        <v>-0.01278044483952558</v>
       </c>
       <c r="C41">
-        <v>-0.008722523597163656</v>
+        <v>-0.01774307913046325</v>
       </c>
       <c r="D41">
-        <v>0.06752015486609451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04873935273108655</v>
+      </c>
+      <c r="E41">
+        <v>0.02534333689065739</v>
+      </c>
+      <c r="F41">
+        <v>0.01935856057728444</v>
+      </c>
+      <c r="G41">
+        <v>-0.03915985586388973</v>
+      </c>
+      <c r="H41">
+        <v>0.03347752061521424</v>
+      </c>
+      <c r="I41">
+        <v>0.05407108210064869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007750428063260529</v>
+        <v>-0.006427184180313075</v>
       </c>
       <c r="C43">
-        <v>-0.01283032416500158</v>
+        <v>-0.01856487940259972</v>
       </c>
       <c r="D43">
-        <v>0.08475934890773291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06347097245936102</v>
+      </c>
+      <c r="E43">
+        <v>0.008933399917531681</v>
+      </c>
+      <c r="F43">
+        <v>0.01967013586989258</v>
+      </c>
+      <c r="G43">
+        <v>-0.04626262283581896</v>
+      </c>
+      <c r="H43">
+        <v>0.06466183805944732</v>
+      </c>
+      <c r="I43">
+        <v>0.04891925539131326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01425779717963016</v>
+        <v>-0.01090950204557051</v>
       </c>
       <c r="C44">
-        <v>-0.03106825483551385</v>
+        <v>-0.04381835399970505</v>
       </c>
       <c r="D44">
-        <v>0.1114703080592738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1146909253307364</v>
+      </c>
+      <c r="E44">
+        <v>-0.0181981271030523</v>
+      </c>
+      <c r="F44">
+        <v>0.02189456140590198</v>
+      </c>
+      <c r="G44">
+        <v>-0.02620817334109648</v>
+      </c>
+      <c r="H44">
+        <v>0.03883989420026418</v>
+      </c>
+      <c r="I44">
+        <v>-0.05982170660751798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009507258400995831</v>
+        <v>-0.0004480407914891599</v>
       </c>
       <c r="C46">
-        <v>-0.03145747954310203</v>
+        <v>-0.04072870018652899</v>
       </c>
       <c r="D46">
-        <v>0.1031929993536105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0878657996900219</v>
+      </c>
+      <c r="E46">
+        <v>-0.0198533236806933</v>
+      </c>
+      <c r="F46">
+        <v>0.02807282921920859</v>
+      </c>
+      <c r="G46">
+        <v>-0.05827048580394265</v>
+      </c>
+      <c r="H46">
+        <v>0.1157051364716374</v>
+      </c>
+      <c r="I46">
+        <v>0.03474941202606224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08351685034091583</v>
+        <v>-0.04013761160509841</v>
       </c>
       <c r="C47">
-        <v>-0.106495767759916</v>
+        <v>-0.1223408526616413</v>
       </c>
       <c r="D47">
-        <v>0.0640259868307009</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03011503213450192</v>
+      </c>
+      <c r="E47">
+        <v>0.01775920791127853</v>
+      </c>
+      <c r="F47">
+        <v>-0.01133578190504517</v>
+      </c>
+      <c r="G47">
+        <v>0.03308739381274541</v>
+      </c>
+      <c r="H47">
+        <v>0.0545655510076167</v>
+      </c>
+      <c r="I47">
+        <v>0.135792799952642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.005615173677103354</v>
+        <v>-0.006563679615386035</v>
       </c>
       <c r="C48">
-        <v>-0.01838266433331016</v>
+        <v>-0.02766564975216808</v>
       </c>
       <c r="D48">
-        <v>0.0988783480093214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08561998662368972</v>
+      </c>
+      <c r="E48">
+        <v>0.009105504216176905</v>
+      </c>
+      <c r="F48">
+        <v>0.03941182944020593</v>
+      </c>
+      <c r="G48">
+        <v>-0.03644450096331133</v>
+      </c>
+      <c r="H48">
+        <v>0.07881270994775645</v>
+      </c>
+      <c r="I48">
+        <v>0.02685655576511157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04284135862349783</v>
+        <v>-0.01679256253743585</v>
       </c>
       <c r="C50">
-        <v>-0.06332902742159581</v>
+        <v>-0.07533839608839436</v>
       </c>
       <c r="D50">
-        <v>0.07665077392028576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05186722535507667</v>
+      </c>
+      <c r="E50">
+        <v>-0.0006335125748737637</v>
+      </c>
+      <c r="F50">
+        <v>0.008328788827139872</v>
+      </c>
+      <c r="G50">
+        <v>-0.03750984920717423</v>
+      </c>
+      <c r="H50">
+        <v>0.03199581821842671</v>
+      </c>
+      <c r="I50">
+        <v>0.1242741472320531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004802554577973518</v>
+        <v>-0.004045697675135155</v>
       </c>
       <c r="C51">
-        <v>-0.006279353600771823</v>
+        <v>-0.01681875352546391</v>
       </c>
       <c r="D51">
-        <v>0.06571378764222226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07013201051994414</v>
+      </c>
+      <c r="E51">
+        <v>-0.03646433584725051</v>
+      </c>
+      <c r="F51">
+        <v>0.03424866513135041</v>
+      </c>
+      <c r="G51">
+        <v>-0.04657764173195972</v>
+      </c>
+      <c r="H51">
+        <v>0.0331640633487149</v>
+      </c>
+      <c r="I51">
+        <v>-0.005778528096673782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.10821001647307</v>
+        <v>-0.06391284364717557</v>
       </c>
       <c r="C53">
-        <v>-0.1210631383782006</v>
+        <v>-0.1519267267161458</v>
       </c>
       <c r="D53">
-        <v>0.02543772426187026</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.009404686475366516</v>
+      </c>
+      <c r="E53">
+        <v>0.03489817286824971</v>
+      </c>
+      <c r="F53">
+        <v>0.05416727494159994</v>
+      </c>
+      <c r="G53">
+        <v>-0.00573211641009954</v>
+      </c>
+      <c r="H53">
+        <v>0.009487851742751888</v>
+      </c>
+      <c r="I53">
+        <v>0.09562527119046915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01689089662045424</v>
+        <v>-0.01135337375315717</v>
       </c>
       <c r="C54">
-        <v>-0.02479701634902859</v>
+        <v>-0.03970305702893077</v>
       </c>
       <c r="D54">
-        <v>0.1089212657898212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08732940706856704</v>
+      </c>
+      <c r="E54">
+        <v>-0.007980283177210081</v>
+      </c>
+      <c r="F54">
+        <v>-0.001523685014114413</v>
+      </c>
+      <c r="G54">
+        <v>-0.05748389849090364</v>
+      </c>
+      <c r="H54">
+        <v>0.07154044266846374</v>
+      </c>
+      <c r="I54">
+        <v>0.05854524453685395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09636898766763094</v>
+        <v>-0.05104096601269512</v>
       </c>
       <c r="C55">
-        <v>-0.1013394094617875</v>
+        <v>-0.1271721543242278</v>
       </c>
       <c r="D55">
-        <v>0.009220433942063224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01807942238137735</v>
+      </c>
+      <c r="E55">
+        <v>-0.001296412062105916</v>
+      </c>
+      <c r="F55">
+        <v>0.02152722871382898</v>
+      </c>
+      <c r="G55">
+        <v>-0.02585571458487456</v>
+      </c>
+      <c r="H55">
+        <v>-0.0004294249971004158</v>
+      </c>
+      <c r="I55">
+        <v>0.08813947186427118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1377478233109432</v>
+        <v>-0.07375107146402705</v>
       </c>
       <c r="C56">
-        <v>-0.1337298421361559</v>
+        <v>-0.1813833265287509</v>
       </c>
       <c r="D56">
-        <v>0.006914819093575034</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02277244389521341</v>
+      </c>
+      <c r="E56">
+        <v>0.03146886479853545</v>
+      </c>
+      <c r="F56">
+        <v>0.01832264406125592</v>
+      </c>
+      <c r="G56">
+        <v>-0.05266178839394891</v>
+      </c>
+      <c r="H56">
+        <v>-0.01677535356876167</v>
+      </c>
+      <c r="I56">
+        <v>0.1114085260474441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.009231734092451701</v>
+        <v>-0.003208713480353032</v>
       </c>
       <c r="C58">
-        <v>-0.0199238778904871</v>
+        <v>-0.04474267296092611</v>
       </c>
       <c r="D58">
-        <v>0.2188404414085106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2806926123883329</v>
+      </c>
+      <c r="E58">
+        <v>0.03257302005873987</v>
+      </c>
+      <c r="F58">
+        <v>0.09314498010847205</v>
+      </c>
+      <c r="G58">
+        <v>-0.1051422563995306</v>
+      </c>
+      <c r="H58">
+        <v>-0.1439335720522572</v>
+      </c>
+      <c r="I58">
+        <v>-0.09860859577698712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1710499092494561</v>
+        <v>-0.2427596114194124</v>
       </c>
       <c r="C59">
-        <v>0.1581186398515778</v>
+        <v>0.08766779595386529</v>
       </c>
       <c r="D59">
-        <v>0.052184585224894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06095900442703982</v>
+      </c>
+      <c r="E59">
+        <v>0.02740085202848728</v>
+      </c>
+      <c r="F59">
+        <v>0.01341688220665709</v>
+      </c>
+      <c r="G59">
+        <v>0.0117859860287759</v>
+      </c>
+      <c r="H59">
+        <v>-0.02053040941526993</v>
+      </c>
+      <c r="I59">
+        <v>0.02984027379994619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1995930316237645</v>
+        <v>-0.1593813135885256</v>
       </c>
       <c r="C60">
-        <v>-0.09790133120283244</v>
+        <v>-0.1663779505447669</v>
       </c>
       <c r="D60">
-        <v>0.157599338293357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.08755287478143489</v>
+      </c>
+      <c r="E60">
+        <v>-0.2351722760370931</v>
+      </c>
+      <c r="F60">
+        <v>-0.1671772836625787</v>
+      </c>
+      <c r="G60">
+        <v>0.2642715405203427</v>
+      </c>
+      <c r="H60">
+        <v>-0.1075741039108627</v>
+      </c>
+      <c r="I60">
+        <v>-0.03847554329564298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03128367900495931</v>
+        <v>-0.0159568072037968</v>
       </c>
       <c r="C61">
-        <v>-0.05469168485199628</v>
+        <v>-0.07000919707870003</v>
       </c>
       <c r="D61">
-        <v>0.110892383700626</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08825942524830778</v>
+      </c>
+      <c r="E61">
+        <v>-0.03504026079854786</v>
+      </c>
+      <c r="F61">
+        <v>-0.01423444896745931</v>
+      </c>
+      <c r="G61">
+        <v>-0.002965759512989844</v>
+      </c>
+      <c r="H61">
+        <v>0.09626855701382421</v>
+      </c>
+      <c r="I61">
+        <v>-0.01173633822420322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.0108860284203801</v>
+        <v>-0.004980460517436848</v>
       </c>
       <c r="C63">
-        <v>-0.02568415353682725</v>
+        <v>-0.03516024372060303</v>
       </c>
       <c r="D63">
-        <v>0.09557641478187735</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07324785139525704</v>
+      </c>
+      <c r="E63">
+        <v>-0.02435658723380056</v>
+      </c>
+      <c r="F63">
+        <v>0.02242314218430962</v>
+      </c>
+      <c r="G63">
+        <v>-0.03375211257076595</v>
+      </c>
+      <c r="H63">
+        <v>0.05278943921468988</v>
+      </c>
+      <c r="I63">
+        <v>0.008620726441759508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06070364492206529</v>
+        <v>-0.02526988692067631</v>
       </c>
       <c r="C64">
-        <v>-0.08348215546288788</v>
+        <v>-0.103930261524945</v>
       </c>
       <c r="D64">
-        <v>0.04857913297445524</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03592105196183537</v>
+      </c>
+      <c r="E64">
+        <v>-0.02651104501068125</v>
+      </c>
+      <c r="F64">
+        <v>0.02421190754180556</v>
+      </c>
+      <c r="G64">
+        <v>0.01228683920334815</v>
+      </c>
+      <c r="H64">
+        <v>0.1079607945088794</v>
+      </c>
+      <c r="I64">
+        <v>-0.03243869066396056</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02887734894933894</v>
+        <v>-0.02361421621911303</v>
       </c>
       <c r="C65">
-        <v>-0.01746100868684891</v>
+        <v>-0.03670731399141243</v>
       </c>
       <c r="D65">
-        <v>0.1190024189555204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1104589034388367</v>
+      </c>
+      <c r="E65">
+        <v>-0.0344330402745524</v>
+      </c>
+      <c r="F65">
+        <v>0.001926213041598866</v>
+      </c>
+      <c r="G65">
+        <v>-0.004317658960871875</v>
+      </c>
+      <c r="H65">
+        <v>0.01891208131775999</v>
+      </c>
+      <c r="I65">
+        <v>0.007373905431581534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02440109517785908</v>
+        <v>-0.00791412232505634</v>
       </c>
       <c r="C66">
-        <v>-0.06532358673812001</v>
+        <v>-0.08893550847924657</v>
       </c>
       <c r="D66">
-        <v>0.1210837443837179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1317599458936712</v>
+      </c>
+      <c r="E66">
+        <v>-0.03442159223386505</v>
+      </c>
+      <c r="F66">
+        <v>-0.01651129533969031</v>
+      </c>
+      <c r="G66">
+        <v>-0.01807307657145207</v>
+      </c>
+      <c r="H66">
+        <v>0.050603881306342</v>
+      </c>
+      <c r="I66">
+        <v>-0.06385472402405545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02886316856280215</v>
+        <v>-0.02641529576921983</v>
       </c>
       <c r="C67">
-        <v>-0.01953111673194828</v>
+        <v>-0.02847204979479006</v>
       </c>
       <c r="D67">
-        <v>0.04740855628463254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03847549434245081</v>
+      </c>
+      <c r="E67">
+        <v>-0.001370976831279345</v>
+      </c>
+      <c r="F67">
+        <v>-0.02716042737093183</v>
+      </c>
+      <c r="G67">
+        <v>-0.03588009945082421</v>
+      </c>
+      <c r="H67">
+        <v>0.05759992388640858</v>
+      </c>
+      <c r="I67">
+        <v>0.03124614694769703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.206716598960495</v>
+        <v>-0.2688771997233605</v>
       </c>
       <c r="C68">
-        <v>0.1730706225045198</v>
+        <v>0.08891358920076647</v>
       </c>
       <c r="D68">
-        <v>0.03782979127816477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02947226692725105</v>
+      </c>
+      <c r="E68">
+        <v>-0.005505045581198133</v>
+      </c>
+      <c r="F68">
+        <v>0.02850214068740973</v>
+      </c>
+      <c r="G68">
+        <v>-0.04355948512315735</v>
+      </c>
+      <c r="H68">
+        <v>-0.05259476147865046</v>
+      </c>
+      <c r="I68">
+        <v>0.1130047302802414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06336246769485163</v>
+        <v>-0.02678557801264245</v>
       </c>
       <c r="C69">
-        <v>-0.1168086838342347</v>
+        <v>-0.1221440596494963</v>
       </c>
       <c r="D69">
-        <v>0.086354502860042</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04501026151123611</v>
+      </c>
+      <c r="E69">
+        <v>-0.004256016756845079</v>
+      </c>
+      <c r="F69">
+        <v>-0.01333927059329305</v>
+      </c>
+      <c r="G69">
+        <v>0.01535210891854101</v>
+      </c>
+      <c r="H69">
+        <v>0.04969237807106285</v>
+      </c>
+      <c r="I69">
+        <v>0.09114213851119904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2085479438796198</v>
+        <v>-0.2677318071813106</v>
       </c>
       <c r="C71">
-        <v>0.188133916596757</v>
+        <v>0.1010249869910186</v>
       </c>
       <c r="D71">
-        <v>0.032629666898477</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02183085528194137</v>
+      </c>
+      <c r="E71">
+        <v>0.009054201175060644</v>
+      </c>
+      <c r="F71">
+        <v>0.02106323184894412</v>
+      </c>
+      <c r="G71">
+        <v>-0.04438324782995796</v>
+      </c>
+      <c r="H71">
+        <v>-0.002390908815514448</v>
+      </c>
+      <c r="I71">
+        <v>0.1699760045730288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1050117617173988</v>
+        <v>-0.06290009368928197</v>
       </c>
       <c r="C72">
-        <v>-0.07547780969158077</v>
+        <v>-0.1211043867941369</v>
       </c>
       <c r="D72">
-        <v>0.09250042453745876</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06866806625592542</v>
+      </c>
+      <c r="E72">
+        <v>-0.09078659694069482</v>
+      </c>
+      <c r="F72">
+        <v>-0.01372101456354053</v>
+      </c>
+      <c r="G72">
+        <v>-0.001796189091532159</v>
+      </c>
+      <c r="H72">
+        <v>0.04814505705743299</v>
+      </c>
+      <c r="I72">
+        <v>-0.0388481321819685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1803952227855652</v>
+        <v>-0.1447719196697457</v>
       </c>
       <c r="C73">
-        <v>-0.05910221727123961</v>
+        <v>-0.1339849343152864</v>
       </c>
       <c r="D73">
-        <v>0.2050624571152539</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09436361079303766</v>
+      </c>
+      <c r="E73">
+        <v>-0.3946767644183922</v>
+      </c>
+      <c r="F73">
+        <v>-0.2591805454851518</v>
+      </c>
+      <c r="G73">
+        <v>0.4572464717230035</v>
+      </c>
+      <c r="H73">
+        <v>-0.02607698718549168</v>
+      </c>
+      <c r="I73">
+        <v>-0.08036862636954249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1079990206847623</v>
+        <v>-0.05838872196381617</v>
       </c>
       <c r="C74">
-        <v>-0.1103610181102932</v>
+        <v>-0.1405641363828587</v>
       </c>
       <c r="D74">
-        <v>-0.0169537716492498</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03651215270331806</v>
+      </c>
+      <c r="E74">
+        <v>0.01362407035349512</v>
+      </c>
+      <c r="F74">
+        <v>0.05156278949180047</v>
+      </c>
+      <c r="G74">
+        <v>-0.005675889209622693</v>
+      </c>
+      <c r="H74">
+        <v>-0.006383046663362885</v>
+      </c>
+      <c r="I74">
+        <v>0.1153413168553031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2394776029950033</v>
+        <v>-0.1345997146374446</v>
       </c>
       <c r="C75">
-        <v>-0.1917137526706922</v>
+        <v>-0.2622940149720596</v>
       </c>
       <c r="D75">
-        <v>-0.1038464670504581</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1356376402112502</v>
+      </c>
+      <c r="E75">
+        <v>0.08643970380174673</v>
+      </c>
+      <c r="F75">
+        <v>-0.03051720592640491</v>
+      </c>
+      <c r="G75">
+        <v>-0.08736135903965729</v>
+      </c>
+      <c r="H75">
+        <v>-0.02483178980804126</v>
+      </c>
+      <c r="I75">
+        <v>0.09462819769862769</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1450097291413474</v>
+        <v>-0.07510033278208844</v>
       </c>
       <c r="C76">
-        <v>-0.1358115870900846</v>
+        <v>-0.1809678480516701</v>
       </c>
       <c r="D76">
-        <v>0.01756302854436724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0271712931519527</v>
+      </c>
+      <c r="E76">
+        <v>0.02965061968992158</v>
+      </c>
+      <c r="F76">
+        <v>0.01142501996845238</v>
+      </c>
+      <c r="G76">
+        <v>-0.06373384052188502</v>
+      </c>
+      <c r="H76">
+        <v>0.01910675802367393</v>
+      </c>
+      <c r="I76">
+        <v>0.1179345423506196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02456944234391406</v>
+        <v>-0.03345785967213293</v>
       </c>
       <c r="C77">
-        <v>-0.08010148336712153</v>
+        <v>-0.09296642492586255</v>
       </c>
       <c r="D77">
-        <v>0.07802040051305781</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2491350361607612</v>
+      </c>
+      <c r="E77">
+        <v>0.755622567225477</v>
+      </c>
+      <c r="F77">
+        <v>-0.3438135079468457</v>
+      </c>
+      <c r="G77">
+        <v>0.3599728476376385</v>
+      </c>
+      <c r="H77">
+        <v>-0.1652227439340358</v>
+      </c>
+      <c r="I77">
+        <v>0.03879423881633828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.024820966373854</v>
+        <v>-0.01688301667145005</v>
       </c>
       <c r="C78">
-        <v>-0.07170834297404639</v>
+        <v>-0.0843525792450428</v>
       </c>
       <c r="D78">
-        <v>0.1539202320397785</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1411704900482053</v>
+      </c>
+      <c r="E78">
+        <v>-0.04414362973072477</v>
+      </c>
+      <c r="F78">
+        <v>0.0438259724959305</v>
+      </c>
+      <c r="G78">
+        <v>-0.03192783986262875</v>
+      </c>
+      <c r="H78">
+        <v>0.01884843696962466</v>
+      </c>
+      <c r="I78">
+        <v>0.00895446453917826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08417657461661786</v>
+        <v>-0.04076232112624852</v>
       </c>
       <c r="C79">
-        <v>-0.1539585489930516</v>
+        <v>-0.1772268700860867</v>
       </c>
       <c r="D79">
-        <v>-0.08187348805850783</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05572006832432447</v>
+      </c>
+      <c r="E79">
+        <v>0.1117484837130194</v>
+      </c>
+      <c r="F79">
+        <v>0.7961630159044348</v>
+      </c>
+      <c r="G79">
+        <v>0.4533154819451801</v>
+      </c>
+      <c r="H79">
+        <v>-0.1041297709915658</v>
+      </c>
+      <c r="I79">
+        <v>-0.1641504144601836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.006887267112829614</v>
+        <v>-0.001093549169365</v>
       </c>
       <c r="C80">
-        <v>-0.04765210246215649</v>
+        <v>-0.04854653891241023</v>
       </c>
       <c r="D80">
-        <v>0.04939479153420245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04793188778957388</v>
+      </c>
+      <c r="E80">
+        <v>-0.02087851052234605</v>
+      </c>
+      <c r="F80">
+        <v>0.01017507392713454</v>
+      </c>
+      <c r="G80">
+        <v>-0.04715664224894511</v>
+      </c>
+      <c r="H80">
+        <v>0.002183067561931586</v>
+      </c>
+      <c r="I80">
+        <v>0.05230873499738042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1262948560441931</v>
+        <v>-0.06078894566570535</v>
       </c>
       <c r="C81">
-        <v>-0.1285080559905894</v>
+        <v>-0.1631151421554175</v>
       </c>
       <c r="D81">
-        <v>-0.06053708323631438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07675940130265212</v>
+      </c>
+      <c r="E81">
+        <v>0.07038192837114579</v>
+      </c>
+      <c r="F81">
+        <v>0.04767094591282326</v>
+      </c>
+      <c r="G81">
+        <v>-0.06067999192786046</v>
+      </c>
+      <c r="H81">
+        <v>0.05067298838298121</v>
+      </c>
+      <c r="I81">
+        <v>0.1352369381158695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2554279706250388</v>
+        <v>-0.1178135360171386</v>
       </c>
       <c r="C82">
-        <v>-0.2893406827985839</v>
+        <v>-0.32431329879714</v>
       </c>
       <c r="D82">
-        <v>-0.2072785678212454</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2248189783076632</v>
+      </c>
+      <c r="E82">
+        <v>0.04183798356540133</v>
+      </c>
+      <c r="F82">
+        <v>-0.1121884514954587</v>
+      </c>
+      <c r="G82">
+        <v>-0.088808445783241</v>
+      </c>
+      <c r="H82">
+        <v>0.08261403284862795</v>
+      </c>
+      <c r="I82">
+        <v>0.07014573477423852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.001571041920721812</v>
+        <v>0.004853989868356097</v>
       </c>
       <c r="C83">
-        <v>-0.05413687055047979</v>
+        <v>-0.0371191084019637</v>
       </c>
       <c r="D83">
-        <v>0.02648136328210542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04554201894266753</v>
+      </c>
+      <c r="E83">
+        <v>0.09014468345074295</v>
+      </c>
+      <c r="F83">
+        <v>0.02259994127226537</v>
+      </c>
+      <c r="G83">
+        <v>-0.0484671732753273</v>
+      </c>
+      <c r="H83">
+        <v>0.04775494016387296</v>
+      </c>
+      <c r="I83">
+        <v>0.01888043899101215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-2.32361098384696e-05</v>
+        <v>0.0009735607289421273</v>
       </c>
       <c r="C84">
-        <v>-0.0004861949115923409</v>
+        <v>-0.01415312523298506</v>
       </c>
       <c r="D84">
-        <v>0.0006349684537592889</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03579495216684073</v>
+      </c>
+      <c r="E84">
+        <v>0.01006173636999157</v>
+      </c>
+      <c r="F84">
+        <v>0.01261027628543789</v>
+      </c>
+      <c r="G84">
+        <v>-0.03823479109907089</v>
+      </c>
+      <c r="H84">
+        <v>-0.02100200792128375</v>
+      </c>
+      <c r="I84">
+        <v>-0.02922017557454965</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1498802868299653</v>
+        <v>-0.07578940077507755</v>
       </c>
       <c r="C85">
-        <v>-0.1341276981320513</v>
+        <v>-0.1839641791996567</v>
       </c>
       <c r="D85">
-        <v>-0.04250305453459333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08661609693303568</v>
+      </c>
+      <c r="E85">
+        <v>0.003962849217584851</v>
+      </c>
+      <c r="F85">
+        <v>0.08214371757521978</v>
+      </c>
+      <c r="G85">
+        <v>-0.03849910658017544</v>
+      </c>
+      <c r="H85">
+        <v>0.001154858076699584</v>
+      </c>
+      <c r="I85">
+        <v>0.1051072911236314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01421134166632694</v>
+        <v>-0.01216049878873079</v>
       </c>
       <c r="C86">
-        <v>-0.01720288885165191</v>
+        <v>-0.02808706258743839</v>
       </c>
       <c r="D86">
-        <v>0.08175490133555667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.101359067578613</v>
+      </c>
+      <c r="E86">
+        <v>0.04471959620498105</v>
+      </c>
+      <c r="F86">
+        <v>-0.01979879886136875</v>
+      </c>
+      <c r="G86">
+        <v>0.02591064045060105</v>
+      </c>
+      <c r="H86">
+        <v>0.0155634327325289</v>
+      </c>
+      <c r="I86">
+        <v>0.06631843675289699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01498358117660266</v>
+        <v>-0.01066896850218566</v>
       </c>
       <c r="C87">
-        <v>-0.03300464228597259</v>
+        <v>-0.05428983964862446</v>
       </c>
       <c r="D87">
-        <v>0.1197470567076633</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1419089718308735</v>
+      </c>
+      <c r="E87">
+        <v>0.01276808179348239</v>
+      </c>
+      <c r="F87">
+        <v>0.03583435019011563</v>
+      </c>
+      <c r="G87">
+        <v>-0.06735651649493236</v>
+      </c>
+      <c r="H87">
+        <v>-0.01121783965006724</v>
+      </c>
+      <c r="I87">
+        <v>-0.05425581507570673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05857533401834165</v>
+        <v>-0.03338351044353327</v>
       </c>
       <c r="C88">
-        <v>-0.04871600100552776</v>
+        <v>-0.06824348433227782</v>
       </c>
       <c r="D88">
-        <v>0.04744023785712</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0150691663669555</v>
+      </c>
+      <c r="E88">
+        <v>-0.01044530477003258</v>
+      </c>
+      <c r="F88">
+        <v>0.03098575560715273</v>
+      </c>
+      <c r="G88">
+        <v>-0.0214854497347865</v>
+      </c>
+      <c r="H88">
+        <v>0.04167103135505339</v>
+      </c>
+      <c r="I88">
+        <v>0.05912078006113036</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3098644287905941</v>
+        <v>-0.4043428353937396</v>
       </c>
       <c r="C89">
-        <v>0.3355228188134053</v>
+        <v>0.187967903133125</v>
       </c>
       <c r="D89">
-        <v>0.04183983842922221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0281048877656577</v>
+      </c>
+      <c r="E89">
+        <v>0.02160188919362594</v>
+      </c>
+      <c r="F89">
+        <v>0.05792855344850993</v>
+      </c>
+      <c r="G89">
+        <v>-0.05792216897335961</v>
+      </c>
+      <c r="H89">
+        <v>0.1486937306185635</v>
+      </c>
+      <c r="I89">
+        <v>-0.4071496459844299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2490884796765773</v>
+        <v>-0.3108477632123257</v>
       </c>
       <c r="C90">
-        <v>0.2506587094998881</v>
+        <v>0.1291782107738124</v>
       </c>
       <c r="D90">
-        <v>0.03552998384149175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02990797899123687</v>
+      </c>
+      <c r="E90">
+        <v>0.01890386557638202</v>
+      </c>
+      <c r="F90">
+        <v>-0.01329056113141359</v>
+      </c>
+      <c r="G90">
+        <v>-0.06149991091477373</v>
+      </c>
+      <c r="H90">
+        <v>-0.03296043461542012</v>
+      </c>
+      <c r="I90">
+        <v>0.08068313205951622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1597382123144556</v>
+        <v>-0.08286990593881433</v>
       </c>
       <c r="C91">
-        <v>-0.1765924771554692</v>
+        <v>-0.2059734641166752</v>
       </c>
       <c r="D91">
-        <v>-0.0978335570839627</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1087108596536641</v>
+      </c>
+      <c r="E91">
+        <v>0.07007340379123214</v>
+      </c>
+      <c r="F91">
+        <v>0.07736974898692955</v>
+      </c>
+      <c r="G91">
+        <v>-0.01055531277219464</v>
+      </c>
+      <c r="H91">
+        <v>0.001546178631073736</v>
+      </c>
+      <c r="I91">
+        <v>0.1223991617930915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2223925293795501</v>
+        <v>-0.3204336105051275</v>
       </c>
       <c r="C92">
-        <v>0.2591522246141837</v>
+        <v>0.1625661733192029</v>
       </c>
       <c r="D92">
-        <v>-0.04618179404199851</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005809046704971467</v>
+      </c>
+      <c r="E92">
+        <v>0.08579180779075034</v>
+      </c>
+      <c r="F92">
+        <v>0.02671597979515819</v>
+      </c>
+      <c r="G92">
+        <v>-0.0493678032557668</v>
+      </c>
+      <c r="H92">
+        <v>0.008819430153017629</v>
+      </c>
+      <c r="I92">
+        <v>-0.1267316797858699</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2706873855459535</v>
+        <v>-0.3285054946023053</v>
       </c>
       <c r="C93">
-        <v>0.2588798653622905</v>
+        <v>0.1345900825661476</v>
       </c>
       <c r="D93">
-        <v>0.01736306173598089</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01078703433100733</v>
+      </c>
+      <c r="E93">
+        <v>-0.02629019235677748</v>
+      </c>
+      <c r="F93">
+        <v>0.01820283825442828</v>
+      </c>
+      <c r="G93">
+        <v>0.003494142118701641</v>
+      </c>
+      <c r="H93">
+        <v>-0.003575384644709037</v>
+      </c>
+      <c r="I93">
+        <v>0.1133760610730196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3105633136918216</v>
+        <v>-0.163347110196959</v>
       </c>
       <c r="C94">
-        <v>-0.2574500198882618</v>
+        <v>-0.3520981648243562</v>
       </c>
       <c r="D94">
-        <v>-0.384404915815668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3599823339740121</v>
+      </c>
+      <c r="E94">
+        <v>0.04508438412311813</v>
+      </c>
+      <c r="F94">
+        <v>-0.1166359400182653</v>
+      </c>
+      <c r="G94">
+        <v>-0.2743431102187521</v>
+      </c>
+      <c r="H94">
+        <v>-0.1663448127257929</v>
+      </c>
+      <c r="I94">
+        <v>-0.4410255112057165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02446802848846396</v>
+        <v>-0.02300973448328955</v>
       </c>
       <c r="C95">
-        <v>-0.0407037602499323</v>
+        <v>-0.06470398644100317</v>
       </c>
       <c r="D95">
-        <v>0.08623203727563436</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1178812972828956</v>
+      </c>
+      <c r="E95">
+        <v>0.205202267226057</v>
+      </c>
+      <c r="F95">
+        <v>-0.07907465908231198</v>
+      </c>
+      <c r="G95">
+        <v>0.009772283259636586</v>
+      </c>
+      <c r="H95">
+        <v>0.4261601854356017</v>
+      </c>
+      <c r="I95">
+        <v>-0.4591615754124556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.0002541898721728916</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001625772903273526</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001061982467050464</v>
+      </c>
+      <c r="E97">
+        <v>-0.0003867769846400809</v>
+      </c>
+      <c r="F97">
+        <v>-0.001860376771629783</v>
+      </c>
+      <c r="G97">
+        <v>0.0006824815373292594</v>
+      </c>
+      <c r="H97">
+        <v>-0.001405460744442002</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004206980132692694</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1480719230047709</v>
+        <v>-0.1196202596663735</v>
       </c>
       <c r="C98">
-        <v>-0.07340483940757186</v>
+        <v>-0.1362204805294104</v>
       </c>
       <c r="D98">
-        <v>0.1068723255313385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06285054921421532</v>
+      </c>
+      <c r="E98">
+        <v>-0.2707682923919048</v>
+      </c>
+      <c r="F98">
+        <v>-0.1689107010108754</v>
+      </c>
+      <c r="G98">
+        <v>0.2803534131396098</v>
+      </c>
+      <c r="H98">
+        <v>-0.0795969451335488</v>
+      </c>
+      <c r="I98">
+        <v>-0.03607763593855229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.00155816612241557</v>
+        <v>0.0001569570507206268</v>
       </c>
       <c r="C101">
-        <v>-0.02316892078395246</v>
+        <v>-0.02999331811302733</v>
       </c>
       <c r="D101">
-        <v>0.1016770116298864</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1010354327956958</v>
+      </c>
+      <c r="E101">
+        <v>-0.03507630581455429</v>
+      </c>
+      <c r="F101">
+        <v>0.03200787140246992</v>
+      </c>
+      <c r="G101">
+        <v>-0.04836099448769743</v>
+      </c>
+      <c r="H101">
+        <v>0.1038389452973818</v>
+      </c>
+      <c r="I101">
+        <v>0.01674422459048202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1127712056291162</v>
+        <v>-0.04535464512930934</v>
       </c>
       <c r="C102">
-        <v>-0.1475409892256434</v>
+        <v>-0.1522604654072972</v>
       </c>
       <c r="D102">
-        <v>-0.07358943300474768</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09153169445399781</v>
+      </c>
+      <c r="E102">
+        <v>0.03015856591109364</v>
+      </c>
+      <c r="F102">
+        <v>-0.06098339904873876</v>
+      </c>
+      <c r="G102">
+        <v>-0.007821065528510611</v>
+      </c>
+      <c r="H102">
+        <v>0.05246318815897304</v>
+      </c>
+      <c r="I102">
+        <v>0.03261546282554654</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
